--- a/prueba23/copia_prueba23.xlsx
+++ b/prueba23/copia_prueba23.xlsx
@@ -8,7 +8,6 @@
   <sheets>
     <sheet name="mangueras" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="errores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="uniones" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -12236,22 +12235,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>